--- a/data/top_docs/mallet/elbow_top_docs.xlsx
+++ b/data/top_docs/mallet/elbow_top_docs.xlsx
@@ -476,23 +476,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['episode', 'mulder', 'doctor', 'scully', 'viewers', 'episodes', 'series', 'television', 'character', 'season', 'watched', 'dwight', 'broadcast', 'trek', 'jack']</t>
+          <t>['album', 'song', 'chart', 'music', 'video', 'band', 'songs', 'madonna', 'track', 'pop', 'single', 'recording', 'lyrics', 'vocals', 'billboard']</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.04041473196466822</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.03999578282219672</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.03989780094939484</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.03950676534389326</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.03939952808019245</v>
       </c>
     </row>
     <row r="3">
@@ -501,23 +501,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['album', 'song', 'madonna', 'chart', 'video', 'music', 'harrison', 'songs', 'carey', 'band', 'pop', 'track', 'recording', 'billboard', 'number']</t>
+          <t>['tropical', 'storm', 'hurricane', 'winds', 'depression', 'cyclone', 'mph', 'damage', 'rainfall', 'landfall', 'utc', 'wind', 'weakened', 'flooding', 'intensity']</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.0426135587511582</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.04173105144618194</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.04020477829632312</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.03967077488405095</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.03958561063326728</v>
       </c>
     </row>
     <row r="4">
@@ -526,23 +526,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['ship', 'guns', 'ships', 'tons', 'torpedo', 'knots', 'inch', 'cruiser', 'fleet', 'gun', 'deck', 'admiral', 'german', 'turrets', 'cruisers']</t>
+          <t>['episode', 'mulder', 'scully', 'doctor', 'episodes', 'trek', 'files', 'series', 'character', 'enterprise', 'viewers', 'television', 'season', 'broadcast', 'star']</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.03307357113910359</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.03289987397811497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.03279105379470704</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.03277589664240757</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.03266872209705878</v>
       </c>
     </row>
     <row r="5">
@@ -551,23 +551,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['highway', 'route', 'road', 'freeway', 'interchange', 'intersection', 'terminus', 'north', 'east', 'lane', 'continues', 'state', 'avenue', 'passes', 'traffic']</t>
+          <t>['ship', 'guns', 'ships', 'tons', 'torpedo', 'knots', 'cruiser', 'inch', 'fleet', 'cruisers', 'deck', 'gun', 'turrets', 'admiral', 'steam']</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.03623691955667992</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.0362305845910775</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.03590696954761742</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.03585351322284168</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.03562236213373358</v>
       </c>
     </row>
     <row r="6">
@@ -576,23 +576,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['election', 'hitler', 'campaign', 'party', 'bush', 'republican', 'political', 'vote', 'labour', 'president', 'presidential', 'democratic', 'war', 'government', 'senate']</t>
+          <t>['species', 'genus', 'shark', 'females', 'prey', 'eggs', 'males', 'cap', 'sharks', 'fruit', 'stem', 'brown', 'habitat', 'birds', 'specimens']</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.03960955098605304</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.03750827954061426</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.03713866562968354</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.03705329114574955</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.03693695502799424</v>
       </c>
     </row>
     <row r="7">
@@ -601,23 +601,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['tropical', 'storm', 'hurricane', 'winds', 'depression', 'cyclone', 'mph', 'rainfall', 'damage', 'landfall', 'wind', 'utc', 'flooding', 'weakened', 'intensity']</t>
+          <t>['highway', 'route', 'road', 'interchange', 'freeway', 'intersection', 'east', 'north', 'terminus', 'lane', 'continues', 'passes', 'avenue', 'state', 'highways']</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.04162965715551197</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.04128255450906686</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.04120164541369731</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.04087162928105044</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.0406940033749759</v>
       </c>
     </row>
     <row r="8">
@@ -626,23 +626,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['king', 'government', 'polish', 'political', 'emperor', 'son', 'arab', 'death', 'military', 'army', 'died', 'pope', 'poland', 'reign', 'byzantine']</t>
+          <t>['game', 'player', 'gameplay', 'games', 'players', 'playstation', 'nintendo', 'released', 'xbox', 'characters', 'graphics', 'soundtrack', 'mode', 'version', 'mario']</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.03439456571134411</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.03399188254558209</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.03399012255887071</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.03396163097230712</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.03373741373584734</v>
       </c>
     </row>
     <row r="9">
@@ -651,23 +651,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['species', 'shark', 'genus', 'sharks', 'females', 'prey', 'eggs', 'males', 'cap', 'birds', 'nest', 'habitat', 'fin', 'brown', 'stem']</t>
+          <t>['film', 'films', 'bond', 'disney', 'movie', 'role', 'actor', 'director', 'cast', 'filming', 'script', 'production', 'starred', 'grossing', 'batman']</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.0357149156876179</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.03566748361917085</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.03531960457970115</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.03491415944782784</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.03480794765804442</v>
       </c>
     </row>
     <row r="10">
@@ -676,23 +676,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['game', 'player', 'gameplay', 'games', 'players', 'soundtrack', 'mario', 'playstation', 'graphics', 'mode', 'hero', 'nintendo', 'characters', 'released', 'version']</t>
+          <t>['army', 'persian', 'byzantine', 'arab', 'syria', 'emperor', 'polish', 'muslim', 'byzantines', 'constantine', 'battle', 'hungary', 'ottoman', 'king', 'forces']</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.03589221419048402</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.03529150028372496</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.03525398819530225</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.03499044767017464</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.03495091680304201</v>
       </c>
     </row>
     <row r="11">
@@ -701,23 +701,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['innings', 'runs', 'league', 'baseball', 'nba', 'batting', 'season', 'career', 'team', 'scored', 'wickets', 'basketball', 'games', 'rebounds', 'batted']</t>
+          <t>['trains', 'station', 'railway', 'building', 'line', 'tunnel', 'bridge', 'rail', 'services', 'train', 'oslo', 'passenger', 'stations', 'river', 'built']</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.0385188743623843</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.03844635294504702</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.03819325945150712</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.03786452822778989</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.03782017399916884</v>
       </c>
     </row>
     <row r="12">
@@ -726,23 +726,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['film', 'films', 'bond', 'disney', 'role', 'movie', 'actor', 'starred', 'cast', 'box', 'tamil', 'director', 'filming', 'grossing', 'production']</t>
+          <t>['battalion', 'brigade', 'aircraft', 'division', 'regiment', 'squadron', 'wing', 'infantry', 'training', 'battalions', 'unit', 'units', 'flight', 'air', 'australian']</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.03801687502817771</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.03790534898424633</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.03748995085072779</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.03729328215608396</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.03715957935338052</v>
       </c>
     </row>
     <row r="13">
@@ -751,23 +751,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['french', 'british', 'governor', 'militia', 'troops', 'battle', 'massachusetts', 'boston', 'command', 'kentucky', 'fort', 'men', 'army', 'fleet', 'general']</t>
+          <t>['election', 'governor', 'bush', 'republican', 'senate', 'president', 'democratic', 'massachusetts', 'campaign', 'presidential', 'elected', 'kentucky', 'lincoln', 'senator', 'vote']</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.03313271733065908</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.0329881416696134</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.03289755237376321</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.03270756990864491</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.03248611899566108</v>
       </c>
     </row>
     <row r="14">
@@ -776,23 +776,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['castle', 'century', 'station', 'church', 'castles', 'built', 'bridge', 'tower', 'pier', 'railway', 'bailey', 'river', 'building', 'trains', 'bristol']</t>
+          <t>['castle', 'church', 'century', 'castles', 'king', 'cathedral', 'tower', 'medieval', 'earl', 'england', 'nave', 'bishop', 'edward', 'chancel', 'built']</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.03456047855705213</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.03398811753907918</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.03360886027797144</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.03338041735354361</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.03335374440899627</v>
       </c>
     </row>
     <row r="15">
@@ -801,23 +801,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['match', 'wrestling', 'championship', 'wwe', 'tag', 'raw', 'ring', 'smackdown', 'defeated', 'heavyweight', 'feud', 'event', 'wwf', 'michaels', 'title']</t>
+          <t>['yard', 'yards', 'touchdown', 'season', 'michigan', 'team', 'nba', 'league', 'coach', 'tech', 'alabama', 'football', 'points', 'quarter', 'games']</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.04400709750296244</v>
+        <v>0.03587645765652814</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.03539057302831939</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.03510605074541515</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.03478692443182201</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.03476655676270932</v>
       </c>
     </row>
     <row r="16">
@@ -826,23 +826,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['building', 'city', 'park', 'chicago', 'memorial', 'memorials', 'library', 'fountain', 'indiana', 'square', 'galveston', 'street', 'buildings', 'bay', 'courthouse']</t>
+          <t>['olympics', 'olympic', 'athletes', 'medal', 'championships', 'murray', 'meter', 'freestyle', 'round', 'beijing', 'medals', 'games', 'gold', 'seconds', 'relay']</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.03959121117405568</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.03881435712935671</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.03804207975856964</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.03669642235090864</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.03663328000640224</v>
       </c>
     </row>
     <row r="17">
@@ -851,23 +851,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['simpsons', 'episodes', 'episode', 'homer', 'stan', 'parker', 'kenny', 'animated', 'kyle', 'nickelodeon', 'voice', 'lisa', 'jake', 'television', 'voiced']</t>
+          <t>['match', 'tag', 'wrestling', 'championship', 'wwe', 'ring', 'raw', 'event', 'michaels', 'defeated', 'heavyweight', 'smackdown', 'feud', 'wwf', 'angle']</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.03657289886886351</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.0357069200313733</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.03484358210545074</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.03476852224108885</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.03453266179918989</v>
       </c>
     </row>
     <row r="18">
@@ -876,23 +876,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['battalion', 'brigade', 'division', 'regiment', 'infantry', 'battalions', 'squadron', 'training', 'unit', 'units', 'raaf', 'australian', '2nd', 'japanese', '1st']</t>
+          <t>['watershed', 'creek', 'dam', 'island', 'population', 'city', 'area', 'river', 'volcano', 'volcanic', 'flows', 'lighthouse', 'lava', 'bay', 'water']</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.03619715452027038</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.03602247172173262</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.03531434562472235</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.03471337128226992</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.03433844397141863</v>
       </c>
     </row>
     <row r="19">
@@ -901,23 +901,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['olympics', 'athletes', 'olympic', 'medal', 'meter', 'freestyle', 'championships', 'beijing', 'medals', 'seconds', 'relay', 'gold', 'competed', 'games', 'summer']</t>
+          <t>['liz', 'dwight', 'jim', 'pam', 'michael', 'episode', 'nbc', 'jack', 'fey', 'jenna', 'andy', 'office', 'tracy', 'kenneth', 'tgs']</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.03097987273797634</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.03049951172233575</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.0303985255414433</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.0303070224899135</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.03026283153226066</v>
       </c>
     </row>
     <row r="20">
@@ -926,23 +926,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['oxford', 'cambridge', 'race', 'boat', 'blues', 'rowed', 'rowing', 'lengths', 'crews', 'rower', 'thames', 'races', 'crew', 'universities', 'umpired']</t>
+          <t>['oxford', 'cambridge', 'race', 'boat', 'blues', 'rowed', 'rowing', 'lengths', 'crews', 'rower', 'thames', 'races', 'crew', 'universities', 'university_of_cambridge']</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.03575303729966929</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.03443083747094106</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.03429314801109391</v>
       </c>
       <c r="F20" t="n">
-        <v>0.07817032459169757</v>
+        <v>0.03415282145252976</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.03408086629514876</v>
       </c>
     </row>
     <row r="21">
@@ -951,23 +951,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['poem', 'poems', 'poetry', 'poet', 'han', 'shakespeare', 'ode', 'riley', 'text', 'sanskrit', 'texts', 'poetic', 'literary', 'works', 'smart']</t>
+          <t>['women', 'party', 'police', 'labour', 'book', 'rights', 'suffrage', 'government', 'feminist', 'political', 'feminism', 'murder', 'case', 'minister', 'trial']</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.03535394878751211</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.03530316542816835</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.03465300110406713</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.03450699433965937</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.03435550735347877</v>
       </c>
     </row>
     <row r="22">
@@ -976,23 +976,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>['breed', 'horses', 'horse', 'breeds', 'dog', 'dogs', 'stud', 'breeding', 'bred', 'arabian', 'stallion', 'riding', 'breeders', 'pony', 'stakes']</t>
+          <t>['officer', 'commander', 'lieutenant', 'command', 'fighter', 'promoted', 'victories', 'war', 'aircraft', 'flying', 'squadron', 'enemy', 'rank', 'medal', 'training']</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.03336659443586466</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.03259913877538174</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.03205745930054561</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.03171419671275896</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.03152976111333042</v>
       </c>
     </row>
     <row r="23">
@@ -1001,23 +1001,23 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['creek', 'watershed', 'dam', 'volcano', 'lava', 'pipeline', 'flows', 'volcanic', 'trout', 'mountain', 'park', 'eruption', 'river', 'feet', 'cubic']</t>
+          <t>['breed', 'horses', 'horse', 'breeds', 'dog', 'dogs', 'arabian', 'bred', 'breeding', 'stud', 'stallion', 'breeders', 'pony', 'registered', 'hair']</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>0.03779293619710551</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.03641683508660366</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.03550380072172239</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.03484986105892589</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.03452370913259514</v>
       </c>
     </row>
     <row r="24">
@@ -1026,23 +1026,23 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>['aircraft', 'engine', 'flight', 'fuselage', 'wing', 'air', 'engines', 'prototype', 'radar', 'fighter', 'fuel', 'raf', 'speed', 'car', 'testing']</t>
+          <t>['british', 'french', 'militia', 'troops', 'fort', 'howe', 'battle', 'frigate', 'spanish', 'men', 'washington', 'fleet', 'expedition', 'continental_army', 'wounded']</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>0.03329360931430918</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.03280995927863482</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.03278312243485453</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.03235546336667795</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.03231699168525076</v>
       </c>
     </row>
     <row r="25">
@@ -1051,23 +1051,23 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>['trains', 'locomotives', 'locomotive', 'oslo', 'line', 'nok', 'train', 'station', 'tunnel', 'railway', 'class', 'rail', 'railways', 'passenger', 'trondheim']</t>
+          <t>['lap', 'race', 'drivers', 'laps', 'pit', 'car', 'ferrari', 'prix', 'driver', 'qualifying', 'session', 'fastest', 'ahead', 'hamilton', 'points']</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>0.03364738881290891</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.03339739009336787</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.03310388147033747</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>0.03295979444727945</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.03286399261868086</v>
       </c>
     </row>
     <row r="26">
@@ -1076,23 +1076,23 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>['manga', 'anime', 'comics', 'stories', 'story', 'comic', 'magazine', 'volume', 'volumes', 'fiction', 'gay', 'characters', 'pulp', 'published', 'issue']</t>
+          <t>['temple', 'mosque', 'han', 'dynasty', 'sanskrit', 'buddhist', 'hindu', 'chinese', 'bce', 'texts', 'monastery', 'buddhism', 'temples', 'wall', 'text']</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>0.03741781717060261</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.03463876718161229</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.03462708721544569</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>0.03414090569707635</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.03382831898216489</v>
       </c>
     </row>
     <row r="27">
@@ -1101,23 +1101,23 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>['lap', 'race', 'drivers', 'laps', 'pit', 'car', 'driver', 'ferrari', 'qualifying', 'prix', 'session', 'fastest', 'ahead', 'caution', 'hamilton']</t>
+          <t>['simpsons', 'south_park', 'homer', 'lisa', 'episode', 'episodes', 'kenny', 'jake', 'stan', 'kyle', 'finn', 'animated', 'parker', 'voice', 'voiced']</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.01191485428130987</v>
+        <v>0.03009613711975122</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>0.03002927125675852</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>0.02990512759002684</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>0.0298542206808492</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.02983111004164762</v>
       </c>
     </row>
     <row r="28">
@@ -1126,23 +1126,23 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>['yard', 'yards', 'touchdown', 'tech', 'alabama', 'bowl', 'quarter', 'michigan', 'offense', 'football', 'pass', 'rushing', 'quarterback', 'conference', 'touchdowns']</t>
+          <t>['formula', 'matrix', 'function', 'newton', 'linear', 'plants', 'constant', 'language', 'defined', 'theory', 'functions', 'example', 'consciousness', 'space', 'derivative']</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>0.03529739884852209</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>0.03453728751586754</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>0.03300277436339169</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>0.03286493133138704</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.03213181835376945</v>
       </c>
     </row>
     <row r="29">
@@ -1151,23 +1151,23 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>['wine', 'chicken', 'cheese', 'bacon', 'recipes', 'sandwich', 'fried', 'dish', 'dishes', 'cuisine', 'ingredients', 'cooking', 'beef', 'food', 'product']</t>
+          <t>['glee', 'kurt', 'rachel', 'meredith', 'finn', 'episode', 'grey', 'quinn', 'anatomy', 'viewers', 'sue', 'watched', 'yang', 'club', 'grace']</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>0.03167555932504655</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>0.03133425932051875</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>0.0307311483247844</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>0.0306232669001304</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.03040775658209049</v>
       </c>
     </row>
     <row r="30">
@@ -1176,23 +1176,23 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>['persian', 'army', 'byzantine', 'athens', 'greeks', 'greece', 'battle', 'alexander', 'greek', 'siege', 'muslim', 'cavalry', 'byzantines', 'arab', 'ottoman']</t>
+          <t>['bach', 'poem', 'poems', 'shakespeare', 'poet', 'poetry', 'movement', 'ode', 'movements', 'soprano', 'text', 'alto', 'aria', 'stanza', 'narrator']</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>0.03806515772704105</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>0.03728950529845001</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.03638422517434112</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>0.03557782170434565</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.03516716498859982</v>
       </c>
     </row>
     <row r="31">
@@ -1201,23 +1201,23 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>['bach', 'text', 'movements', 'movement', 'soprano', 'gospel', 'jesus', 'hebrew', 'aria', 'alto', 'manuscripts', 'leipzig', 'tenor', 'hymn', 'matthew']</t>
+          <t>['wickets', 'innings', 'test', 'cricket', 'wicket', 'runs', 'matches', 'australia', 'england', 'scored', 'bowling', 'match', 'bowled', 'overs', 'miller']</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>0.04082237328900647</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.03683316685304729</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.03660490578131744</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.03647959022505102</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.03608925287962519</v>
       </c>
     </row>
     <row r="32">
@@ -1226,23 +1226,23 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>['coaster', 'ride', 'roller', 'riders', 'train', 'coasters', 'flags', 'park', 'lift', 'cedar', 'drop', 'brake', 'trains', 'steel', 'hill']</t>
+          <t>['hitler', 'holocaust', 'physics', 'jews', 'nazi', 'nuclear', 'germany', 'manhattan_project', 'atomic', 'berlin', 'jewish', 'nobel', 'german', 'munich', 'research']</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>0.02975186220019672</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>0.0297001642221492</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.02957624496509892</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>0.02900546942059721</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.0288203506602845</v>
       </c>
     </row>
     <row r="33">
@@ -1251,23 +1251,23 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>['formula', 'function', 'matrix', 'linear', 'functions', 'space', 'constant', 'defined', 'language', 'filter', 'frequency', 'mass', 'derivative', 'kilogram', 'units']</t>
+          <t>['ride', 'coaster', 'roller', 'riders', 'train', 'flags', 'coasters', 'park', 'cedar', 'lift', 'attraction', 'drop', 'queue', 'trains', 'rides']</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>0.03311196994162158</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>0.03238498149913455</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.03234932350551908</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>0.03227476268296686</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.03203847656871883</v>
       </c>
     </row>
     <row r="34">
@@ -1276,23 +1276,23 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>['amendment', 'constitution', 'singapore', 'law', 'court', 'courts', 'judicial', 'parliament', 'article', 'constitutional', 'justice', 'shall', 'clause', 'act', 'rights']</t>
+          <t>['chicken', 'cheese', 'fried', 'sandwich', 'wine', 'dishes', 'recipes', 'dish', 'cream', 'cuisine', 'cooking', 'food', 'ingredients', 'bacon', 'meat']</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>0.04297055174058136</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>0.04212884937159443</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.04118275274540119</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>0.03714316980486784</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.03707044615569095</v>
       </c>
     </row>
     <row r="35">
@@ -1301,23 +1301,23 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>['management', 'twitter', 'investment', 'bank', 'billion', 'equity', 'watson', 'design', 'banking', 'company', 'users', 'firm', 'business', 'merger', 'assets']</t>
+          <t>['buenos_aires', 'soviet', 'argentina', 'argentine', 'revolution', 'cuban', 'dictator', 'drug', 'government', 'soviet_union', 'mafia', 'cuba', 'spanish', 'political', 'spain']</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>0.03039971785253161</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>0.03022136572669462</v>
       </c>
       <c r="E35" t="n">
-        <v>0.04152649471805685</v>
+        <v>0.03010223055368147</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>0.02957796962135959</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.02935673347237833</v>
       </c>
     </row>
     <row r="36">
@@ -1326,23 +1326,23 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>['mosque', 'temple', 'congregation', 'wall', 'palace', 'hall', 'jewish', 'jews', 'shrine', 'tomb', 'temples', 'cave', 'jerusalem', 'christians', 'dome']</t>
+          <t>['twitter', 'cylinder', 'cylinders', 'vehicle', 'watson', 'vehicles', 'toyota', 'users', 'model', 'models', 'gas', 'car', 'electric', 'engine', 'valve']</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.03551544293045146</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>0.03435197902951165</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>0.03401698294742615</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>0.033627684413796</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.03302848354700583</v>
       </c>
     </row>
     <row r="37">
@@ -1351,23 +1351,23 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>['scotland', 'scottish', 'island', 'islands', 'norse', 'century', 'edinburgh', 'isles', 'houses', 'architecture', 'mainland', 'scots', 'glasgow', 'highlands', 'churches']</t>
+          <t>['fiction', 'gay', 'stories', 'pulp', 'lgbt', 'science', 'magazine', 'lesbian', 'comics', 'fantasy', 'issue', 'magazines', 'comic', 'hugo', 'published']</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>0.0353561653350818</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>0.03406067920859476</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.03353982871057921</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>0.03309613849809422</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.03306932333543502</v>
       </c>
     </row>
     <row r="38">
@@ -1376,23 +1376,23 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>['croatian', 'yugoslav', 'partisans', 'serbian', 'croatia', 'yugoslavia', 'partisan', 'serbs', 'bosnia', 'belgrade', 'serbia', 'germans', 'civilians', 'division', 'forces']</t>
+          <t>['nickelodeon', 'patrick', 'dvd', 'bikini', 'episodes', 'animation', 'kenny', 'voice', 'kids', 'storyboard', 'episode', 'animated', 'lawrence', 'character', 'television']</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>0.02466646472903304</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>0.02413056364637791</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>0.02351458093364857</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>0.02331015872408657</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.02329687358705899</v>
       </c>
     </row>
     <row r="39">
@@ -1401,23 +1401,23 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>['plants', 'plant', 'botanical', 'tree', 'camouflage', 'animals', 'organisms', 'animal', 'gardens', 'species', 'garden', 'tea', 'trees', 'ecology', 'predators']</t>
+          <t>['scottish', 'scotland', 'painting', 'edinburgh', 'architecture', 'houses', 'century', 'churches', 'scots', 'bricks', 'portrait', 'highlands', 'glasgow', 'brick', 'portraits']</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>0.03283178036098013</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>0.03153629220763968</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>0.03063867205839368</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>0.03062432954324235</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.03061392209573864</v>
       </c>
     </row>
     <row r="40">
@@ -1426,23 +1426,23 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>['phillies', 'inning', 'yankees', 'dodgers', 'teams', 'breaker', 'giants', 'mlb', 'tie', 'yankee', 'postseason', 'game', 'run', 'pitcher', 'baseball']</t>
+          <t>['hebrew', 'text', 'manuscripts', 'gospel', 'jesus', 'manuscript', 'matthew', 'john', 'biblical', 'luke', 'greek', 'printing', 'readings', 'scholars', 'letters']</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>0.0321085183084026</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>0.03208019515568871</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>0.03185431277801427</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>0.03167352412025241</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.03158643039525289</v>
       </c>
     </row>
     <row r="41">
@@ -1451,23 +1451,23 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>['painting', 'paintings', 'art', 'artist', 'serbian', 'works', 'marie', 'exhibition', 'copenhagen', 'photography', 'photographers', 'canvas', 'painted', 'symphony', 'portrait']</t>
+          <t>['comics', 'story', 'belgian', 'adventures', 'snowy', 'moon', 'brussels', 'cartoonist', 'comic', 'depiction', 'belgium', 'adventure', 'sun', 'explorers', 'book']</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>0.02671802484009533</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>0.02567744276578107</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>0.02554570626977094</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>0.02511682650701923</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.02482536858427783</v>
       </c>
     </row>
     <row r="42">
@@ -1476,23 +1476,23 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>['spacecraft', 'apollo', 'nasa', 'orbit', 'mission', 'lunar', 'launch', 'saturn', 'docking', 'flight', 'manned', 'module', 'space', 'landing', 'earth']</t>
+          <t>['spacecraft', 'apollo', 'nasa', 'lunar', 'mission', 'orbit', 'launch', 'moon', 'saturn', 'module', 'manned', 'docking', 'landing', 'flight', 'space']</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>0.03867917361755503</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>0.03477247789850443</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>0.03365983494934756</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>0.03068033501427585</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.03048418194416381</v>
       </c>
     </row>
     <row r="43">
@@ -1501,23 +1501,23 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>['contest', 'broadcaster', 'semi', 'countries', 'jury', 'final', 'participating', 'greece', 'voting', 'host', 'idol', 'entry', 'philippine', 'song', 'country']</t>
+          <t>['phillies', 'inning', 'yankees', 'dodgers', 'giants', 'yankee', 'breaker', 'innings', 'tie', 'pitcher', 'run', 'braves', 'game', 'runs', 'pennant']</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>0.03722771605235978</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.03598029452350893</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>0.03535989878123726</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>0.03489846940228675</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.03455665327956607</v>
       </c>
     </row>
     <row r="44">
@@ -1526,23 +1526,23 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>['lighthouse', 'light', 'keeper', 'tower', 'lens', 'keepers', 'concrete', 'connecticut', 'lamp', 'cottages', 'installed', 'constructed', 'lamps', 'island', 'iron']</t>
+          <t>['amendment', 'shall', 'constitution', 'clause', 'defendant', 'states', 'rights', 'congress', 'jury', 'amendments', 'ratification', 'constitutional', 'supreme_court', 'senate', 'convention']</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>0.03644029268718463</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>0.03600204971800382</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>0.03560675485257794</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4961284441746719</v>
+        <v>0.0355293117432248</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.03552447294769452</v>
       </c>
     </row>
     <row r="45">
@@ -1551,23 +1551,23 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>['ben', 'survivors', 'shannon', 'island', 'freighter', 'charlotte', 'bernard', 'michael', 'plane', 'daniel', 'tom', 'frank', 'dave', 'kate', 'oceanic']</t>
+          <t>['singapore', 'law', 'judicial', 'parliament', 'constitution', 'article', 'courts', 'minister', 'court', 'constitutional', 'high_court', 'persons', 'public', 'tribunal', 'act']</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>0.0327195548569437</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>0.03256670713490949</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>0.03199670698720346</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>0.03113721245805416</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.03111725143716254</v>
       </c>
     </row>
     <row r="46">
@@ -1576,23 +1576,23 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>['motorway', 'croatia', 'adriatic', 'croatian', 'toll', 'traffic', 'interchanges', 'kilometre', 'route', 'interchange', 'kilometres', 'section', 'areas', 'rest', 'yugoslavia']</t>
+          <t>['motorway', 'croatia', 'toll', 'croatian', 'traffic', 'interchanges', 'kilometre', 'route', 'interchange', 'section', 'rest', 'kilometres', 'areas', 'tunnels', 'construction']</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>0.0335799730296705</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>0.03199116658642889</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>0.03194744999059786</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>0.03082262136743451</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.03073728621776013</v>
       </c>
     </row>
     <row r="47">
@@ -1601,23 +1601,23 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>['rockets', 'nba', 'arena', 'playoffs', 'houston', 'team', 'franchise', 'ownership', 'finals', 'relocation', 'toronto', 'draft', 'games', 'pick', 'season']</t>
+          <t>['clark', 'superman', 'oliver', 'finale', 'season', 'comic', 'character', 'relationship', 'whitney', 'metropolis', 'believes', 'discovers', 'secret', 'martha', 'series']</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>0.02273035066694747</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>0.02272758510731853</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>0.02119491674171596</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>0.02108165625293712</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>0.02073350053607194</v>
       </c>
     </row>
     <row r="48">
@@ -1626,23 +1626,23 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>['clark', 'superman', 'oliver', 'finale', 'season', 'comic', 'character', 'relationship', 'whitney', 'metropolis', 'believes', 'discovers', 'secret', 'martha', 'series']</t>
+          <t>['euro', 'coins', 'currency', 'note', 'notes', 'denominations', 'dollar', 'value', 'stripe', 'tender', 'silver', 'puerto_rico', 'thread', 'ink', 'issued']</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>0.03224859031462773</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>0.03067576034085303</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>0.02772176665466566</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>0.02741990000591924</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>0.02670389175243932</v>
       </c>
     </row>
     <row r="49">
@@ -1651,23 +1651,23 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>['grammy', 'neo', 'hawaiian', 'soul', 'nominees', 'category', 'awards', 'rap', 'award', 'presented', 'categories', 'artists', 'recipients', 'academy', 'disco']</t>
+          <t>['painting', 'paintings', 'works', 'abstract', 'dots', 'art', 'canvas', 'okay', 'artist', 'breasts', 'portrait', 'mirror', 'girl', 'work', 'balloon']</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.3624846530489756</v>
+        <v>0.03152360626199356</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9714585633031385</v>
+        <v>0.03035099853265441</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>0.02919261037362417</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>0.02892562877117177</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0.0284929015594798</v>
       </c>
     </row>
     <row r="50">
@@ -1676,23 +1676,23 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>['euro', 'coins', 'currency', 'note', 'notes', 'denominations', 'dollar', 'value', 'stripe', 'tender', 'silver', 'thread', 'ink', 'issued', 'signature']</t>
+          <t>['ben', 'shannon', 'survivors', 'bernard', 'island', 'freighter', 'dave', 'frank', 'plane', 'jack', 'alex', 'miles', 'kate', 'crash', 'rose']</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>0.02548028291511381</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>0.02517558974727</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>0.02483271658372091</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>0.02478646002978325</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>0.02478392804147314</v>
       </c>
     </row>
   </sheetData>

--- a/data/top_docs/mallet/elbow_top_docs.xlsx
+++ b/data/top_docs/mallet/elbow_top_docs.xlsx
@@ -483,16 +483,16 @@
         <v>0.04041473196466822</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03999578282219672</v>
+        <v>0.04000434785130035</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03989780094939484</v>
+        <v>0.03950676534389326</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03950676534389326</v>
+        <v>0.03939952808019245</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03939952808019245</v>
+        <v>0.03933405950324943</v>
       </c>
     </row>
     <row r="3">
@@ -508,16 +508,16 @@
         <v>0.0426135587511582</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04173105144618194</v>
+        <v>0.04079397860326064</v>
       </c>
       <c r="E3" t="n">
+        <v>0.04068034854710206</v>
+      </c>
+      <c r="F3" t="n">
         <v>0.04020477829632312</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.03967077488405095</v>
-      </c>
       <c r="G3" t="n">
-        <v>0.03958561063326728</v>
+        <v>0.03943734061124522</v>
       </c>
     </row>
     <row r="4">
@@ -533,16 +533,16 @@
         <v>0.03307357113910359</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03289987397811497</v>
+        <v>0.03277589664240757</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03279105379470704</v>
+        <v>0.03266872209705878</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03277589664240757</v>
+        <v>0.03248301738290605</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03266872209705878</v>
+        <v>0.03244428900374872</v>
       </c>
     </row>
     <row r="5">
@@ -555,19 +555,19 @@
         </is>
       </c>
       <c r="C5" t="n">
+        <v>0.03656281317052121</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.03623691955667992</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.0362305845910775</v>
-      </c>
       <c r="E5" t="n">
-        <v>0.03590696954761742</v>
+        <v>0.03585351322284168</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03585351322284168</v>
+        <v>0.0355985663950515</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03562236213373358</v>
+        <v>0.0355226383124756</v>
       </c>
     </row>
     <row r="6">
@@ -583,16 +583,16 @@
         <v>0.03960955098605304</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03750827954061426</v>
+        <v>0.03728456689129077</v>
       </c>
       <c r="E6" t="n">
         <v>0.03713866562968354</v>
       </c>
       <c r="F6" t="n">
+        <v>0.03707158257353536</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.03705329114574955</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.03693695502799424</v>
       </c>
     </row>
     <row r="7">
@@ -614,10 +614,10 @@
         <v>0.04120164541369731</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04087162928105044</v>
+        <v>0.0406940033749759</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0406940033749759</v>
+        <v>0.0405234318667373</v>
       </c>
     </row>
     <row r="8">
@@ -630,10 +630,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.03439456571134411</v>
+        <v>0.03421651979822254</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03399188254558209</v>
+        <v>0.03419497371930777</v>
       </c>
       <c r="E8" t="n">
         <v>0.03399012255887071</v>
@@ -642,7 +642,7 @@
         <v>0.03396163097230712</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03373741373584734</v>
+        <v>0.03366394205114161</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>0.03566748361917085</v>
       </c>
       <c r="E9" t="n">
+        <v>0.03560290821817723</v>
+      </c>
+      <c r="F9" t="n">
         <v>0.03531960457970115</v>
       </c>
-      <c r="F9" t="n">
-        <v>0.03491415944782784</v>
-      </c>
       <c r="G9" t="n">
-        <v>0.03480794765804442</v>
+        <v>0.03495653006861789</v>
       </c>
     </row>
     <row r="10">
@@ -680,19 +680,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.03589221419048402</v>
+        <v>0.03653259067730615</v>
       </c>
       <c r="D10" t="n">
-        <v>0.03529150028372496</v>
+        <v>0.03552617096385219</v>
       </c>
       <c r="E10" t="n">
         <v>0.03525398819530225</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03499044767017464</v>
+        <v>0.03519423961164765</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03495091680304201</v>
+        <v>0.0350235436339904</v>
       </c>
     </row>
     <row r="11">
@@ -705,19 +705,19 @@
         </is>
       </c>
       <c r="C11" t="n">
+        <v>0.04091767521764635</v>
+      </c>
+      <c r="D11" t="n">
         <v>0.0385188743623843</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>0.03844635294504702</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
+        <v>0.03834185834755878</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.03819325945150712</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.03786452822778989</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.03782017399916884</v>
       </c>
     </row>
     <row r="12">
@@ -733,16 +733,16 @@
         <v>0.03801687502817771</v>
       </c>
       <c r="D12" t="n">
-        <v>0.03790534898424633</v>
+        <v>0.03792180142592391</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03748995085072779</v>
+        <v>0.03742173350191724</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03729328215608396</v>
+        <v>0.03715957935338052</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03715957935338052</v>
+        <v>0.03706082751841745</v>
       </c>
     </row>
     <row r="13">
@@ -755,19 +755,19 @@
         </is>
       </c>
       <c r="C13" t="n">
+        <v>0.03338453141001082</v>
+      </c>
+      <c r="D13" t="n">
         <v>0.03313271733065908</v>
       </c>
-      <c r="D13" t="n">
-        <v>0.0329881416696134</v>
-      </c>
       <c r="E13" t="n">
-        <v>0.03289755237376321</v>
+        <v>0.03270756990864491</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03270756990864491</v>
+        <v>0.03258181135511897</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03248611899566108</v>
+        <v>0.03257522049311584</v>
       </c>
     </row>
     <row r="14">
@@ -783,16 +783,16 @@
         <v>0.03456047855705213</v>
       </c>
       <c r="D14" t="n">
-        <v>0.03398811753907918</v>
+        <v>0.03360184159643557</v>
       </c>
       <c r="E14" t="n">
-        <v>0.03360886027797144</v>
+        <v>0.03343128430985657</v>
       </c>
       <c r="F14" t="n">
-        <v>0.03338041735354361</v>
+        <v>0.03335374440899627</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03335374440899627</v>
+        <v>0.03328665432776195</v>
       </c>
     </row>
     <row r="15">
@@ -805,19 +805,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.03587645765652814</v>
+        <v>0.03539057302831939</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03539057302831939</v>
+        <v>0.03537070315239201</v>
       </c>
       <c r="E15" t="n">
-        <v>0.03510605074541515</v>
+        <v>0.03498744106857717</v>
       </c>
       <c r="F15" t="n">
         <v>0.03478692443182201</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03476655676270932</v>
+        <v>0.0346362429200126</v>
       </c>
     </row>
     <row r="16">
@@ -830,19 +830,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.03959121117405568</v>
+        <v>0.03991546163275893</v>
       </c>
       <c r="D16" t="n">
-        <v>0.03881435712935671</v>
+        <v>0.03918820274350299</v>
       </c>
       <c r="E16" t="n">
-        <v>0.03804207975856964</v>
+        <v>0.03675132126988168</v>
       </c>
       <c r="F16" t="n">
-        <v>0.03669642235090864</v>
+        <v>0.0366958213108294</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03663328000640224</v>
+        <v>0.0360152789268874</v>
       </c>
     </row>
     <row r="17">
@@ -861,13 +861,13 @@
         <v>0.0357069200313733</v>
       </c>
       <c r="E17" t="n">
-        <v>0.03484358210545074</v>
+        <v>0.03566394302020694</v>
       </c>
       <c r="F17" t="n">
         <v>0.03476852224108885</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03453266179918989</v>
+        <v>0.03448518566695776</v>
       </c>
     </row>
     <row r="18">
@@ -883,16 +883,16 @@
         <v>0.03619715452027038</v>
       </c>
       <c r="D18" t="n">
-        <v>0.03602247172173262</v>
+        <v>0.03566312548035062</v>
       </c>
       <c r="E18" t="n">
-        <v>0.03531434562472235</v>
+        <v>0.03471337128226992</v>
       </c>
       <c r="F18" t="n">
-        <v>0.03471337128226992</v>
+        <v>0.03433844397141863</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03433844397141863</v>
+        <v>0.03428761527343555</v>
       </c>
     </row>
     <row r="19">
@@ -905,13 +905,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.03097987273797634</v>
+        <v>0.03095735838686689</v>
       </c>
       <c r="D19" t="n">
-        <v>0.03049951172233575</v>
+        <v>0.0303985255414433</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0303985255414433</v>
+        <v>0.0303829120035985</v>
       </c>
       <c r="F19" t="n">
         <v>0.0303070224899135</v>
@@ -930,13 +930,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.03575303729966929</v>
+        <v>0.03466956171178111</v>
       </c>
       <c r="D20" t="n">
-        <v>0.03443083747094106</v>
+        <v>0.03429314801109391</v>
       </c>
       <c r="E20" t="n">
-        <v>0.03429314801109391</v>
+        <v>0.03428316246761137</v>
       </c>
       <c r="F20" t="n">
         <v>0.03415282145252976</v>
@@ -955,19 +955,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.03535394878751211</v>
+        <v>0.03539235174792499</v>
       </c>
       <c r="D21" t="n">
         <v>0.03530316542816835</v>
       </c>
       <c r="E21" t="n">
-        <v>0.03465300110406713</v>
+        <v>0.03456261560107315</v>
       </c>
       <c r="F21" t="n">
-        <v>0.03450699433965937</v>
+        <v>0.03435550735347877</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03435550735347877</v>
+        <v>0.03429948596094831</v>
       </c>
     </row>
     <row r="22">
@@ -980,13 +980,13 @@
         </is>
       </c>
       <c r="C22" t="n">
+        <v>0.03462154954958127</v>
+      </c>
+      <c r="D22" t="n">
         <v>0.03336659443586466</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>0.03259913877538174</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.03205745930054561</v>
       </c>
       <c r="F22" t="n">
         <v>0.03171419671275896</v>
@@ -1005,19 +1005,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.03779293619710551</v>
+        <v>0.03598883961844532</v>
       </c>
       <c r="D23" t="n">
-        <v>0.03641683508660366</v>
+        <v>0.03550380072172239</v>
       </c>
       <c r="E23" t="n">
-        <v>0.03550380072172239</v>
+        <v>0.03537222967315393</v>
       </c>
       <c r="F23" t="n">
-        <v>0.03484986105892589</v>
+        <v>0.03464846926148695</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03452370913259514</v>
+        <v>0.03446625873392323</v>
       </c>
     </row>
     <row r="24">
@@ -1030,13 +1030,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.03329360931430918</v>
+        <v>0.03280995927863482</v>
       </c>
       <c r="D24" t="n">
-        <v>0.03280995927863482</v>
+        <v>0.03256896951684068</v>
       </c>
       <c r="E24" t="n">
-        <v>0.03278312243485453</v>
+        <v>0.03236041572849568</v>
       </c>
       <c r="F24" t="n">
         <v>0.03235546336667795</v>
@@ -1058,16 +1058,16 @@
         <v>0.03364738881290891</v>
       </c>
       <c r="D25" t="n">
-        <v>0.03339739009336787</v>
+        <v>0.033299072809871</v>
       </c>
       <c r="E25" t="n">
-        <v>0.03310388147033747</v>
+        <v>0.03297575741305355</v>
       </c>
       <c r="F25" t="n">
         <v>0.03295979444727945</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03286399261868086</v>
+        <v>0.03282084132458501</v>
       </c>
     </row>
     <row r="26">
@@ -1083,13 +1083,13 @@
         <v>0.03741781717060261</v>
       </c>
       <c r="D26" t="n">
-        <v>0.03463876718161229</v>
+        <v>0.03695378827398092</v>
       </c>
       <c r="E26" t="n">
+        <v>0.03479153338419285</v>
+      </c>
+      <c r="F26" t="n">
         <v>0.03462708721544569</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.03414090569707635</v>
       </c>
       <c r="G26" t="n">
         <v>0.03382831898216489</v>
@@ -1105,19 +1105,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.03009613711975122</v>
+        <v>0.0323376042408559</v>
       </c>
       <c r="D27" t="n">
-        <v>0.03002927125675852</v>
+        <v>0.03002414028355591</v>
       </c>
       <c r="E27" t="n">
+        <v>0.03000353857958505</v>
+      </c>
+      <c r="F27" t="n">
         <v>0.02990512759002684</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>0.0298542206808492</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.02983111004164762</v>
       </c>
     </row>
     <row r="28">
@@ -1133,13 +1133,13 @@
         <v>0.03529739884852209</v>
       </c>
       <c r="D28" t="n">
-        <v>0.03453728751586754</v>
+        <v>0.03324318109941769</v>
       </c>
       <c r="E28" t="n">
-        <v>0.03300277436339169</v>
+        <v>0.03293092705757739</v>
       </c>
       <c r="F28" t="n">
-        <v>0.03286493133138704</v>
+        <v>0.03257011401562933</v>
       </c>
       <c r="G28" t="n">
         <v>0.03213181835376945</v>
@@ -1155,13 +1155,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.03167555932504655</v>
+        <v>0.03138532251684729</v>
       </c>
       <c r="D29" t="n">
-        <v>0.03133425932051875</v>
+        <v>0.03098007193113086</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0307311483247844</v>
+        <v>0.03071413927582397</v>
       </c>
       <c r="F29" t="n">
         <v>0.0306232669001304</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.03806515772704105</v>
+        <v>0.03638422517434112</v>
       </c>
       <c r="D30" t="n">
-        <v>0.03728950529845001</v>
+        <v>0.03576772347051604</v>
       </c>
       <c r="E30" t="n">
-        <v>0.03638422517434112</v>
+        <v>0.03528182982354162</v>
       </c>
       <c r="F30" t="n">
-        <v>0.03557782170434565</v>
+        <v>0.03516716498859982</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03516716498859982</v>
+        <v>0.03515581262048962</v>
       </c>
     </row>
     <row r="31">
@@ -1208,16 +1208,16 @@
         <v>0.04082237328900647</v>
       </c>
       <c r="D31" t="n">
-        <v>0.03683316685304729</v>
+        <v>0.03647959022505102</v>
       </c>
       <c r="E31" t="n">
-        <v>0.03660490578131744</v>
+        <v>0.03639609638579747</v>
       </c>
       <c r="F31" t="n">
-        <v>0.03647959022505102</v>
+        <v>0.03608925287962519</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03608925287962519</v>
+        <v>0.03585238040580251</v>
       </c>
     </row>
     <row r="32">
@@ -1230,16 +1230,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.02975186220019672</v>
+        <v>0.0297001642221492</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0297001642221492</v>
+        <v>0.02941747981201072</v>
       </c>
       <c r="E32" t="n">
-        <v>0.02957624496509892</v>
+        <v>0.02928659114696261</v>
       </c>
       <c r="F32" t="n">
-        <v>0.02900546942059721</v>
+        <v>0.02926592739347359</v>
       </c>
       <c r="G32" t="n">
         <v>0.0288203506602845</v>
@@ -1255,16 +1255,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.03311196994162158</v>
+        <v>0.03327279260527567</v>
       </c>
       <c r="D33" t="n">
-        <v>0.03238498149913455</v>
+        <v>0.03296669564690752</v>
       </c>
       <c r="E33" t="n">
+        <v>0.03263844303355716</v>
+      </c>
+      <c r="F33" t="n">
         <v>0.03234932350551908</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.03227476268296686</v>
       </c>
       <c r="G33" t="n">
         <v>0.03203847656871883</v>
@@ -1280,19 +1280,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.04297055174058136</v>
+        <v>0.04212884937159443</v>
       </c>
       <c r="D34" t="n">
-        <v>0.04212884937159443</v>
+        <v>0.04118275274540119</v>
       </c>
       <c r="E34" t="n">
-        <v>0.04118275274540119</v>
+        <v>0.03762351655090383</v>
       </c>
       <c r="F34" t="n">
+        <v>0.03741446571238259</v>
+      </c>
+      <c r="G34" t="n">
         <v>0.03714316980486784</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.03707044615569095</v>
       </c>
     </row>
     <row r="35">
@@ -1305,19 +1305,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.03039971785253161</v>
+        <v>0.03022136572669462</v>
       </c>
       <c r="D35" t="n">
-        <v>0.03022136572669462</v>
+        <v>0.02988699167425481</v>
       </c>
       <c r="E35" t="n">
-        <v>0.03010223055368147</v>
+        <v>0.02986337046042326</v>
       </c>
       <c r="F35" t="n">
         <v>0.02957796962135959</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02935673347237833</v>
+        <v>0.02944383654311555</v>
       </c>
     </row>
     <row r="36">
@@ -1339,10 +1339,10 @@
         <v>0.03401698294742615</v>
       </c>
       <c r="F36" t="n">
-        <v>0.033627684413796</v>
+        <v>0.03393920227359754</v>
       </c>
       <c r="G36" t="n">
-        <v>0.03302848354700583</v>
+        <v>0.03310555274254069</v>
       </c>
     </row>
     <row r="37">
@@ -1355,19 +1355,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.0353561653350818</v>
+        <v>0.03457403334361462</v>
       </c>
       <c r="D37" t="n">
-        <v>0.03406067920859476</v>
+        <v>0.03406767463599975</v>
       </c>
       <c r="E37" t="n">
-        <v>0.03353982871057921</v>
+        <v>0.03349918029503234</v>
       </c>
       <c r="F37" t="n">
+        <v>0.03331448502224645</v>
+      </c>
+      <c r="G37" t="n">
         <v>0.03309613849809422</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.03306932333543502</v>
       </c>
     </row>
     <row r="38">
@@ -1380,19 +1380,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.02466646472903304</v>
+        <v>0.02413056364637791</v>
       </c>
       <c r="D38" t="n">
-        <v>0.02413056364637791</v>
+        <v>0.02351458093364857</v>
       </c>
       <c r="E38" t="n">
-        <v>0.02351458093364857</v>
+        <v>0.02340915108963856</v>
       </c>
       <c r="F38" t="n">
-        <v>0.02331015872408657</v>
+        <v>0.02329687358705899</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02329687358705899</v>
+        <v>0.02328501571895603</v>
       </c>
     </row>
     <row r="39">
@@ -1405,10 +1405,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.03283178036098013</v>
+        <v>0.03141365961958499</v>
       </c>
       <c r="D39" t="n">
-        <v>0.03153629220763968</v>
+        <v>0.03130418992312569</v>
       </c>
       <c r="E39" t="n">
         <v>0.03063867205839368</v>
@@ -1430,19 +1430,19 @@
         </is>
       </c>
       <c r="C40" t="n">
+        <v>0.03263516948121871</v>
+      </c>
+      <c r="D40" t="n">
         <v>0.0321085183084026</v>
       </c>
-      <c r="D40" t="n">
-        <v>0.03208019515568871</v>
-      </c>
       <c r="E40" t="n">
-        <v>0.03185431277801427</v>
+        <v>0.03167352412025241</v>
       </c>
       <c r="F40" t="n">
-        <v>0.03167352412025241</v>
+        <v>0.03158643039525289</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03158643039525289</v>
+        <v>0.03142402970055166</v>
       </c>
     </row>
     <row r="41">
@@ -1455,19 +1455,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.02671802484009533</v>
+        <v>0.02635329007205709</v>
       </c>
       <c r="D41" t="n">
-        <v>0.02567744276578107</v>
+        <v>0.02519793849179802</v>
       </c>
       <c r="E41" t="n">
-        <v>0.02554570626977094</v>
+        <v>0.02514114134698422</v>
       </c>
       <c r="F41" t="n">
         <v>0.02511682650701923</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02482536858427783</v>
+        <v>0.02481891286673979</v>
       </c>
     </row>
     <row r="42">
@@ -1480,19 +1480,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.03867917361755503</v>
+        <v>0.03477247789850443</v>
       </c>
       <c r="D42" t="n">
-        <v>0.03477247789850443</v>
+        <v>0.03433907997604539</v>
       </c>
       <c r="E42" t="n">
         <v>0.03365983494934756</v>
       </c>
       <c r="F42" t="n">
-        <v>0.03068033501427585</v>
+        <v>0.03261695793537692</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03048418194416381</v>
+        <v>0.03056010536682863</v>
       </c>
     </row>
     <row r="43">
@@ -1505,19 +1505,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.03722771605235978</v>
+        <v>0.03598029452350893</v>
       </c>
       <c r="D43" t="n">
-        <v>0.03598029452350893</v>
+        <v>0.03535989878123726</v>
       </c>
       <c r="E43" t="n">
-        <v>0.03535989878123726</v>
+        <v>0.03489846940228675</v>
       </c>
       <c r="F43" t="n">
-        <v>0.03489846940228675</v>
+        <v>0.03485106074628356</v>
       </c>
       <c r="G43" t="n">
-        <v>0.03455665327956607</v>
+        <v>0.0347359466192077</v>
       </c>
     </row>
     <row r="44">
@@ -1533,16 +1533,16 @@
         <v>0.03644029268718463</v>
       </c>
       <c r="D44" t="n">
+        <v>0.03619748282849886</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.03607548577692608</v>
+      </c>
+      <c r="F44" t="n">
         <v>0.03600204971800382</v>
       </c>
-      <c r="E44" t="n">
+      <c r="G44" t="n">
         <v>0.03560675485257794</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.0355293117432248</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.03552447294769452</v>
       </c>
     </row>
     <row r="45">
@@ -1555,19 +1555,19 @@
         </is>
       </c>
       <c r="C45" t="n">
+        <v>0.0333266753660377</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.03280877799940893</v>
+      </c>
+      <c r="E45" t="n">
         <v>0.0327195548569437</v>
       </c>
-      <c r="D45" t="n">
-        <v>0.03256670713490949</v>
-      </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>0.03199670698720346</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>0.03113721245805416</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.03111725143716254</v>
       </c>
     </row>
     <row r="46">
@@ -1583,16 +1583,16 @@
         <v>0.0335799730296705</v>
       </c>
       <c r="D46" t="n">
+        <v>0.03269917374121813</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.03206698109689552</v>
+      </c>
+      <c r="F46" t="n">
         <v>0.03199116658642889</v>
       </c>
-      <c r="E46" t="n">
+      <c r="G46" t="n">
         <v>0.03194744999059786</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.03082262136743451</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.03073728621776013</v>
       </c>
     </row>
     <row r="47">
@@ -1608,13 +1608,13 @@
         <v>0.02273035066694747</v>
       </c>
       <c r="D47" t="n">
-        <v>0.02272758510731853</v>
+        <v>0.02124313864217251</v>
       </c>
       <c r="E47" t="n">
         <v>0.02119491674171596</v>
       </c>
       <c r="F47" t="n">
-        <v>0.02108165625293712</v>
+        <v>0.02104881108638292</v>
       </c>
       <c r="G47" t="n">
         <v>0.02073350053607194</v>
@@ -1630,19 +1630,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.03224859031462773</v>
+        <v>0.02896520685920233</v>
       </c>
       <c r="D48" t="n">
-        <v>0.03067576034085303</v>
+        <v>0.02894123505625453</v>
       </c>
       <c r="E48" t="n">
-        <v>0.02772176665466566</v>
+        <v>0.02791932962396472</v>
       </c>
       <c r="F48" t="n">
         <v>0.02741990000591924</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02670389175243932</v>
+        <v>0.02645542788022004</v>
       </c>
     </row>
     <row r="49">
@@ -1658,7 +1658,7 @@
         <v>0.03152360626199356</v>
       </c>
       <c r="D49" t="n">
-        <v>0.03035099853265441</v>
+        <v>0.03045832944362489</v>
       </c>
       <c r="E49" t="n">
         <v>0.02919261037362417</v>
@@ -1667,7 +1667,7 @@
         <v>0.02892562877117177</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0284929015594798</v>
+        <v>0.02825516478047194</v>
       </c>
     </row>
     <row r="50">
@@ -1683,16 +1683,16 @@
         <v>0.02548028291511381</v>
       </c>
       <c r="D50" t="n">
-        <v>0.02517558974727</v>
+        <v>0.02478392804147314</v>
       </c>
       <c r="E50" t="n">
-        <v>0.02483271658372091</v>
+        <v>0.02464927472267159</v>
       </c>
       <c r="F50" t="n">
-        <v>0.02478646002978325</v>
+        <v>0.02446196962891726</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02478392804147314</v>
+        <v>0.02434551346842735</v>
       </c>
     </row>
   </sheetData>
